--- a/MyGtn/AppGtn/test_data/data_import/NaturalPerson_import.xlsx
+++ b/MyGtn/AppGtn/test_data/data_import/NaturalPerson_import.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox\PyProject\project\MyGtn\MyGtn\AppGtn\test_data\data_import\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="270" yWindow="630" windowWidth="19815" windowHeight="9150"/>
   </bookViews>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>comment</t>
   </si>
@@ -59,12 +64,33 @@
   </si>
   <si>
     <t>Земля матушка</t>
+  </si>
+  <si>
+    <t>Жгет</t>
+  </si>
+  <si>
+    <t>Тамара</t>
+  </si>
+  <si>
+    <t>Протопоповна</t>
+  </si>
+  <si>
+    <t>asdfsad</t>
+  </si>
+  <si>
+    <t>jkljjsdf</t>
+  </si>
+  <si>
+    <t>fjlsfl</t>
+  </si>
+  <si>
+    <t>17.04.20010</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -111,6 +137,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -398,20 +432,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.375" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="7" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="32.28515625" customWidth="1"/>
+    <col min="5" max="5" width="32.25" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
     <col min="8" max="9" width="11" customWidth="1"/>
@@ -419,7 +453,7 @@
     <col min="11" max="11" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" ht="15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -481,6 +515,32 @@
       </c>
       <c r="J2" s="2">
         <v>40179</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
